--- a/foodsalesfil1.xlsx
+++ b/foodsalesfil1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\foodsale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\foodsales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EB33E0-B9F3-42CA-8EFE-FD6A9984FDB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CC91E7-9D00-439F-B66D-B14AFFD8CCCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{6E075FF3-58C6-40F0-8E67-726EABB1ADA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA913AA5-3F19-42CC-8E1D-E564678E5374}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +451,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2">
         <v>44986</v>
       </c>
@@ -470,6 +473,292 @@
         <v>33</v>
       </c>
       <c r="H2">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>33</v>
+      </c>
+      <c r="H13">
         <v>1.77</v>
       </c>
     </row>

--- a/foodsalesfil1.xlsx
+++ b/foodsalesfil1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\foodsales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CC91E7-9D00-439F-B66D-B14AFFD8CCCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECE8E1B-8B06-4990-BA20-56F29EB4733D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{6E075FF3-58C6-40F0-8E67-726EABB1ADA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Carrot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west </t>
+  </si>
+  <si>
+    <t>daman</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>apple</t>
   </si>
 </sst>
 </file>
@@ -419,7 +431,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="C7" sqref="C7:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,22 +522,22 @@
         <v>44986</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>1.77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -588,22 +600,22 @@
         <v>44986</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>1.77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -614,22 +626,22 @@
         <v>44986</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>1.77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -640,22 +652,22 @@
         <v>44986</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H9">
-        <v>1.77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -666,22 +678,22 @@
         <v>44986</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>1.77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">

--- a/foodsalesfil1.xlsx
+++ b/foodsalesfil1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\foodsales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECE8E1B-8B06-4990-BA20-56F29EB4733D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA9C4E1-4FAB-4EBC-A625-3A470C133312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{6E075FF3-58C6-40F0-8E67-726EABB1ADA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA913AA5-3F19-42CC-8E1D-E564678E5374}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H10"/>
+      <selection activeCell="C14" sqref="C14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,6 +774,46 @@
         <v>1.77</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>33</v>
+      </c>
+      <c r="H15">
+        <v>1.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/foodsalesfil1.xlsx
+++ b/foodsalesfil1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\foodsales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA9C4E1-4FAB-4EBC-A625-3A470C133312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062BDB25-E9FA-40C4-9FFC-8C13ACA23DD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{6E075FF3-58C6-40F0-8E67-726EABB1ADA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA913AA5-3F19-42CC-8E1D-E564678E5374}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H15"/>
+      <selection activeCell="C16" sqref="C16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,6 +814,46 @@
         <v>1.77</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <v>1.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
